--- a/Data/Mailinfo.xlsx
+++ b/Data/Mailinfo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>mail</t>
   </si>
@@ -35,13 +35,25 @@
     <t>quanbui081098@gmail.com</t>
   </si>
   <si>
-    <t>Sau khi hết hạn hợp đồng với HAGL vào tháng 12/2022, Nguyễn Công Phượng quyết định không gia hạn mà chuyển tới đầu quân cho Yokohama FC. Giống những lần xuất ngoại trước, trong màu áo Mito Hollyhock (2016), Incheon United và Sint Truiden (2019), tiền đạo sinh 1995 gặp khó khăn trong việc tìm chỗ đứng ở CLB. Tại Yokohama FC, anh mới một lần được vào sân tại giải chính thức, ở phút 90 trận thua Nagoya Grampus 2-3 hôm 5/4. Tổng cộng, Công Phượng không được đăng ký sau 13 vòng tại J-League 1 và ngồi dự bị ba trong bốn trận tại J-League Cup.</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>Cảnh báo phiếu ghi mức độ trung bình sắp tới hạn (6 giờ)</t>
+  </si>
+  <si>
+    <t>Cảnh báo phiếu ghi mức độ cao sắp tới hạn (4 giờ)</t>
+  </si>
+  <si>
+    <t>Cảnh báo phiếu ghi mức độ thấp sắp tới hạn(8 giờ)</t>
+  </si>
+  <si>
+    <t>Phiếu ghi thông báo chuyển cấp lân 1</t>
+  </si>
+  <si>
+    <t>Phiếu ghi thông báo chuyển cấp lân 2</t>
+  </si>
+  <si>
+    <t>Thông báo tới Khách hàng khi tạo mới Ticket</t>
+  </si>
+  <si>
+    <t>Cảnh báo mức độ phiếu ghi mức độ nghiêm trọng sắp tới hạn</t>
   </si>
 </sst>
 </file>
@@ -378,42 +390,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
